--- a/code/data_oil_water.xlsx
+++ b/code/data_oil_water.xlsx
@@ -611,67 +611,67 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>底表軟體動物(ind./m2)</t>
+          <t>底表軟體動物</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>底表節肢動物(ind./m2)</t>
+          <t>底表節肢動物</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>底表棘皮動物(ind./m2)</t>
+          <t>底表棘皮動物</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>底內多毛動物(ind./m3)</t>
+          <t>底內多毛動物</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>底內軟體動物 二枚貝(ind./m3)</t>
+          <t>底內軟體動物 二枚貝</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>底內軟體動物 螺(ind./m3)</t>
+          <t>底內軟體動物 螺</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>底內節肢動物(ind./m3)</t>
+          <t>底內節肢動物</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>底內刺絲胞動物(ind./m3)</t>
+          <t>底內刺絲胞動物</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>底內棘皮動物(ind./m3)</t>
+          <t>底內棘皮動物</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>底內扁行動物(ind./m3)</t>
+          <t>底內扁行動物</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>底內紐形動物(ind./m3)</t>
+          <t>底內紐形動物</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>底內星蟲動物(ind./m3)</t>
+          <t>底內星蟲動物</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>底內軟體動物(ind./m3)</t>
+          <t>底內軟體動物</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
@@ -756,16 +756,16 @@
         <v>0.1333333333</v>
       </c>
       <c r="W2" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>24.667</v>
+        <v>98.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.667</v>
+        <v>14.7</v>
       </c>
       <c r="AA2" t="n">
         <v>0.049</v>
@@ -887,13 +887,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.167</v>
+        <v>0.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.833</v>
+        <v>99.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="AA3" t="n">
         <v>0.049</v>
@@ -1012,16 +1012,16 @@
         <v>4.016666667</v>
       </c>
       <c r="W4" t="n">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="X4" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.833</v>
+        <v>83.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
         <v>0.049</v>
@@ -1137,10 +1137,18 @@
       <c r="V5" t="n">
         <v>2.983333333</v>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>16</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29.1</v>
+      </c>
       <c r="AA5" t="n">
         <v>0.049</v>
       </c>
@@ -1255,10 +1263,18 @@
       <c r="V6" t="n">
         <v>0.3166666667</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>49.4</v>
+      </c>
       <c r="AA6" t="n">
         <v>0.049</v>
       </c>
@@ -1376,7 +1392,7 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1504,16 +1520,16 @@
         <v>0.3333333333</v>
       </c>
       <c r="W8" t="n">
-        <v>6.333</v>
+        <v>25.3</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.667</v>
+        <v>74.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="n">
         <v>0.049</v>
@@ -1632,16 +1648,16 @@
         <v>0.6666666667</v>
       </c>
       <c r="W9" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="X9" t="n">
-        <v>4.333</v>
+        <v>17.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.333</v>
+        <v>81.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="n">
         <v>0.049</v>
@@ -1760,13 +1776,13 @@
         <v>0.4166666667</v>
       </c>
       <c r="W10" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="X10" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1888,16 +1904,16 @@
         <v>3.25</v>
       </c>
       <c r="W11" t="n">
-        <v>3.167</v>
+        <v>12.7</v>
       </c>
       <c r="X11" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.5</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="AA11" t="n">
         <v>0.049</v>
@@ -2048,16 +2064,16 @@
         <v>2.383333333</v>
       </c>
       <c r="W12" t="n">
-        <v>5.333</v>
+        <v>21.3</v>
       </c>
       <c r="X12" t="n">
-        <v>1.833</v>
+        <v>7.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.833</v>
+        <v>71.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.333</v>
+        <v>25.3</v>
       </c>
       <c r="AA12" t="n">
         <v>0.049</v>
@@ -2208,16 +2224,16 @@
         <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.167</v>
+        <v>32.7</v>
       </c>
       <c r="AA13" t="n">
         <v>0.049</v>
@@ -2349,7 +2365,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="P14" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q14" t="n">
         <v>-2.995732273553991</v>
@@ -2368,16 +2384,16 @@
         <v>0.7166666667</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="Z14" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
         <v>0.049</v>
@@ -2509,7 +2525,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q15" t="n">
         <v>-2.995732273553991</v>
@@ -2528,16 +2544,16 @@
         <v>1.366666667</v>
       </c>
       <c r="W15" t="n">
-        <v>9.667</v>
+        <v>38.7</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.333</v>
+        <v>61.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="AA15" t="n">
         <v>0.049</v>
@@ -2669,7 +2685,7 @@
         <v>11.4</v>
       </c>
       <c r="P16" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q16" t="n">
         <v>-2.995732273553991</v>
@@ -2688,16 +2704,16 @@
         <v>1.133333333</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.833</v>
+        <v>31.3</v>
       </c>
       <c r="AA16" t="n">
         <v>0.049</v>
@@ -2829,7 +2845,7 @@
         <v>11.2</v>
       </c>
       <c r="P17" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q17" t="n">
         <v>-2.407945608651872</v>
@@ -2848,16 +2864,16 @@
         <v>0.2833333333</v>
       </c>
       <c r="W17" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>23.667</v>
+        <v>94.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
         <v>0.049</v>
@@ -2989,7 +3005,7 @@
         <v>57.3</v>
       </c>
       <c r="P18" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q18" t="n">
         <v>-2.040220828526555</v>
@@ -3008,16 +3024,16 @@
         <v>0.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.667</v>
+        <v>10.7</v>
       </c>
       <c r="X18" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="Z18" t="n">
-        <v>12.333</v>
+        <v>49.3</v>
       </c>
       <c r="AA18" t="n">
         <v>0.049</v>
@@ -3168,16 +3184,16 @@
         <v>0.2333333333</v>
       </c>
       <c r="W19" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="X19" t="n">
-        <v>6.333</v>
+        <v>25.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.333</v>
+        <v>69.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AA19" t="n">
         <v>0.049</v>
@@ -3309,7 +3325,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q20" t="n">
         <v>-1.966112856372833</v>
@@ -3328,16 +3344,16 @@
         <v>1.05</v>
       </c>
       <c r="W20" t="n">
-        <v>10.333</v>
+        <v>41.3</v>
       </c>
       <c r="X20" t="n">
-        <v>3.333</v>
+        <v>13.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.333</v>
+        <v>45.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.333</v>
+        <v>57.3</v>
       </c>
       <c r="AA20" t="n">
         <v>0.049</v>
@@ -3469,7 +3485,7 @@
         <v>27.8</v>
       </c>
       <c r="P21" t="n">
-        <v>-9.210340371976182</v>
+        <v>-4.605170185988091</v>
       </c>
       <c r="Q21" t="n">
         <v>-3.506557897319982</v>
@@ -3575,7 +3591,7 @@
         <v>3.1</v>
       </c>
       <c r="P22" t="n">
-        <v>-9.210340371976182</v>
+        <v>-4.605170185988091</v>
       </c>
       <c r="Q22" t="n">
         <v>-3.506557897319982</v>
@@ -3681,7 +3697,7 @@
         <v>9</v>
       </c>
       <c r="P23" t="n">
-        <v>-9.210340371976182</v>
+        <v>-4.605170185988091</v>
       </c>
       <c r="Q23" t="n">
         <v>-3.218875824868201</v>
@@ -3787,7 +3803,7 @@
         <v>18.6</v>
       </c>
       <c r="P24" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q24" t="n">
         <v>-3.506557897319982</v>
@@ -3999,7 +4015,7 @@
         <v>14.9</v>
       </c>
       <c r="P26" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q26" t="n">
         <v>-3.506557897319982</v>
@@ -4105,7 +4121,7 @@
         <v>12.4</v>
       </c>
       <c r="P27" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q27" t="n">
         <v>-3.218875824868201</v>
@@ -4317,7 +4333,7 @@
         <v>6.5</v>
       </c>
       <c r="P29" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q29" t="n">
         <v>-3.506557897319982</v>
@@ -4423,7 +4439,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="P30" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q30" t="n">
         <v>-3.912023005428146</v>
@@ -4529,7 +4545,7 @@
         <v>54.3</v>
       </c>
       <c r="P31" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q31" t="n">
         <v>-2.525728644308256</v>
@@ -4548,16 +4564,16 @@
         <v>4.25</v>
       </c>
       <c r="W31" t="n">
-        <v>4.667</v>
+        <v>18.7</v>
       </c>
       <c r="X31" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.833</v>
+        <v>79.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="AA31" t="n">
         <v>0.049</v>
@@ -4708,16 +4724,16 @@
         <v>2.1</v>
       </c>
       <c r="W32" t="n">
-        <v>5.167</v>
+        <v>20.7</v>
       </c>
       <c r="X32" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.833</v>
+        <v>67.3</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.167</v>
+        <v>24.7</v>
       </c>
       <c r="AA32" t="n">
         <v>0.049</v>
@@ -4849,7 +4865,7 @@
         <v>3.2</v>
       </c>
       <c r="P33" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q33" t="n">
         <v>-2.659260036932778</v>
@@ -4868,16 +4884,16 @@
         <v>2.2</v>
       </c>
       <c r="W33" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="X33" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="Y33" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Z33" t="n">
-        <v>6.167</v>
+        <v>24.7</v>
       </c>
       <c r="AA33" t="n">
         <v>0.049</v>
@@ -5009,7 +5025,7 @@
         <v>31.4</v>
       </c>
       <c r="P34" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q34" t="n">
         <v>-4.509860006183766</v>
@@ -5028,16 +5044,16 @@
         <v>3.616666667</v>
       </c>
       <c r="W34" t="n">
-        <v>6.333</v>
+        <v>25.3</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>18.667</v>
+        <v>74.7</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.833</v>
+        <v>35.3</v>
       </c>
       <c r="AA34" t="n">
         <v>0.049</v>
@@ -5169,7 +5185,7 @@
         <v>77.8</v>
       </c>
       <c r="P35" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q35" t="n">
         <v>-3.912023005428146</v>
@@ -5188,16 +5204,16 @@
         <v>1.133333333</v>
       </c>
       <c r="W35" t="n">
-        <v>1.167</v>
+        <v>4.7</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>23.833</v>
+        <v>95.3</v>
       </c>
       <c r="Z35" t="n">
-        <v>11.333</v>
+        <v>45.3</v>
       </c>
       <c r="AA35" t="n">
         <v>0.049</v>
@@ -5329,7 +5345,7 @@
         <v>11.5</v>
       </c>
       <c r="P36" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q36" t="n">
         <v>-4.509860006183766</v>
@@ -5348,16 +5364,16 @@
         <v>4.75</v>
       </c>
       <c r="W36" t="n">
-        <v>11.333</v>
+        <v>45.3</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.667</v>
+        <v>54.7</v>
       </c>
       <c r="Z36" t="n">
-        <v>12.333</v>
+        <v>49.3</v>
       </c>
       <c r="AA36" t="n">
         <v>0.049</v>
@@ -5489,7 +5505,7 @@
         <v>7.6</v>
       </c>
       <c r="P37" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q37" t="n">
         <v>-3.912023005428146</v>
@@ -5508,16 +5524,16 @@
         <v>1.533333333</v>
       </c>
       <c r="W37" t="n">
-        <v>3.667</v>
+        <v>14.7</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.333</v>
+        <v>85.3</v>
       </c>
       <c r="Z37" t="n">
-        <v>8.333</v>
+        <v>33.3</v>
       </c>
       <c r="AA37" t="n">
         <v>0.049</v>
@@ -5668,16 +5684,16 @@
         <v>0.9166666667</v>
       </c>
       <c r="W38" t="n">
-        <v>4.333</v>
+        <v>17.3</v>
       </c>
       <c r="X38" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="Y38" t="n">
-        <v>20.333</v>
+        <v>81.3</v>
       </c>
       <c r="Z38" t="n">
-        <v>6.667</v>
+        <v>26.7</v>
       </c>
       <c r="AA38" t="n">
         <v>0.049</v>
@@ -5809,7 +5825,7 @@
         <v>18.1</v>
       </c>
       <c r="P39" t="n">
-        <v>-9.210340371976182</v>
+        <v>-4.605170185988091</v>
       </c>
       <c r="Q39" t="n">
         <v>-3.218875824868201</v>
@@ -5831,13 +5847,13 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>4.667</v>
+        <v>18.7</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.333</v>
+        <v>81.3</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="AA39" t="n">
         <v>0.049</v>
@@ -5988,16 +6004,16 @@
         <v>5.15</v>
       </c>
       <c r="W40" t="n">
-        <v>7.667</v>
+        <v>30.7</v>
       </c>
       <c r="X40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.333</v>
+        <v>65.3</v>
       </c>
       <c r="Z40" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AA40" t="n">
         <v>0.049</v>
@@ -7208,16 +7224,16 @@
         <v>4.75</v>
       </c>
       <c r="W51" t="n">
-        <v>3.333</v>
+        <v>13.3</v>
       </c>
       <c r="X51" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="Y51" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.167</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA51" t="n">
         <v>0.07199999999999999</v>
@@ -7368,16 +7384,16 @@
         <v>1.666666667</v>
       </c>
       <c r="W52" t="n">
-        <v>7.333</v>
+        <v>29.3</v>
       </c>
       <c r="X52" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Y52" t="n">
-        <v>13.667</v>
+        <v>54.7</v>
       </c>
       <c r="Z52" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA52" t="n">
         <v>0.053</v>
@@ -7531,13 +7547,13 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y53" t="n">
-        <v>24.5</v>
+        <v>98</v>
       </c>
       <c r="Z53" t="n">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="AA53" t="n">
         <v>0.052</v>
@@ -7688,16 +7704,16 @@
         <v>0.9333333333</v>
       </c>
       <c r="W54" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="X54" t="n">
-        <v>0.167</v>
+        <v>0.7</v>
       </c>
       <c r="Y54" t="n">
-        <v>24.5</v>
+        <v>98</v>
       </c>
       <c r="Z54" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AA54" t="n">
         <v>0.053</v>
@@ -7848,16 +7864,16 @@
         <v>0.75</v>
       </c>
       <c r="W55" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>24.5</v>
+        <v>98</v>
       </c>
       <c r="Z55" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AA55" t="n">
         <v>0.09</v>
@@ -8008,16 +8024,16 @@
         <v>1.35</v>
       </c>
       <c r="W56" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="Z56" t="n">
-        <v>8.333</v>
+        <v>33.3</v>
       </c>
       <c r="AA56" t="n">
         <v>0.058</v>
@@ -8168,16 +8184,16 @@
         <v>1</v>
       </c>
       <c r="W57" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>23.667</v>
+        <v>94.7</v>
       </c>
       <c r="Z57" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AA57" t="n">
         <v>0.08599999999999999</v>
@@ -8328,16 +8344,16 @@
         <v>1.966666667</v>
       </c>
       <c r="W58" t="n">
-        <v>2.667</v>
+        <v>10.7</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>22.333</v>
+        <v>89.3</v>
       </c>
       <c r="Z58" t="n">
-        <v>11.667</v>
+        <v>46.7</v>
       </c>
       <c r="AA58" t="n">
         <v>0.049</v>
@@ -8491,13 +8507,13 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>2.667</v>
+        <v>10.7</v>
       </c>
       <c r="Y59" t="n">
-        <v>22.333</v>
+        <v>89.3</v>
       </c>
       <c r="Z59" t="n">
-        <v>6.667</v>
+        <v>26.7</v>
       </c>
       <c r="AA59" t="n">
         <v>0.049</v>
@@ -8648,16 +8664,16 @@
         <v>1.633333333</v>
       </c>
       <c r="W60" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="X60" t="n">
-        <v>2.333</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y60" t="n">
-        <v>18.667</v>
+        <v>74.7</v>
       </c>
       <c r="Z60" t="n">
-        <v>5.667</v>
+        <v>22.7</v>
       </c>
       <c r="AA60" t="n">
         <v>0.049</v>
@@ -9868,16 +9884,16 @@
         <v>0.4166666667</v>
       </c>
       <c r="W71" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="X71" t="n">
-        <v>2.833</v>
+        <v>11.3</v>
       </c>
       <c r="Y71" t="n">
-        <v>21.833</v>
+        <v>87.3</v>
       </c>
       <c r="Z71" t="n">
-        <v>4.333</v>
+        <v>17.3</v>
       </c>
       <c r="AA71" t="n">
         <v>0.057</v>
@@ -10028,16 +10044,16 @@
         <v>1.5</v>
       </c>
       <c r="W72" t="n">
-        <v>3.833</v>
+        <v>15.3</v>
       </c>
       <c r="X72" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y72" t="n">
-        <v>16.167</v>
+        <v>64.7</v>
       </c>
       <c r="Z72" t="n">
-        <v>10.667</v>
+        <v>42.7</v>
       </c>
       <c r="AA72" t="n">
         <v>0.052</v>
@@ -10188,16 +10204,16 @@
         <v>0.5</v>
       </c>
       <c r="W73" t="n">
-        <v>1.667</v>
+        <v>6.7</v>
       </c>
       <c r="X73" t="n">
-        <v>5.333</v>
+        <v>21.3</v>
       </c>
       <c r="Y73" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="Z73" t="n">
-        <v>13.333</v>
+        <v>53.3</v>
       </c>
       <c r="AA73" t="n">
         <v>0.049</v>
@@ -10348,16 +10364,16 @@
         <v>1.683333333</v>
       </c>
       <c r="W74" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="X74" t="n">
-        <v>0.167</v>
+        <v>0.7</v>
       </c>
       <c r="Y74" t="n">
-        <v>23.5</v>
+        <v>94</v>
       </c>
       <c r="Z74" t="n">
-        <v>7.167</v>
+        <v>28.7</v>
       </c>
       <c r="AA74" t="n">
         <v>0.049</v>
@@ -10508,16 +10524,16 @@
         <v>1.55</v>
       </c>
       <c r="W75" t="n">
-        <v>2.333</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>22.667</v>
+        <v>90.7</v>
       </c>
       <c r="Z75" t="n">
-        <v>9.833</v>
+        <v>39.3</v>
       </c>
       <c r="AA75" t="n">
         <v>0.049</v>
@@ -10668,16 +10684,16 @@
         <v>1.083333333</v>
       </c>
       <c r="W76" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="X76" t="n">
         <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>23.667</v>
+        <v>94.7</v>
       </c>
       <c r="Z76" t="n">
-        <v>8.667</v>
+        <v>34.7</v>
       </c>
       <c r="AA76" t="n">
         <v>0.049</v>
@@ -10828,16 +10844,16 @@
         <v>0.5833333333</v>
       </c>
       <c r="W77" t="n">
-        <v>2.667</v>
+        <v>10.7</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>22.333</v>
+        <v>89.3</v>
       </c>
       <c r="Z77" t="n">
-        <v>12.333</v>
+        <v>49.3</v>
       </c>
       <c r="AA77" t="n">
         <v>0.049</v>
@@ -10988,16 +11004,16 @@
         <v>1.35</v>
       </c>
       <c r="W78" t="n">
-        <v>4.333</v>
+        <v>17.3</v>
       </c>
       <c r="X78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y78" t="n">
-        <v>19.667</v>
+        <v>78.7</v>
       </c>
       <c r="Z78" t="n">
-        <v>8.667</v>
+        <v>34.7</v>
       </c>
       <c r="AA78" t="n">
         <v>0.049</v>
@@ -11151,10 +11167,10 @@
         <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y79" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Z79" t="n">
         <v>0</v>
@@ -11308,16 +11324,16 @@
         <v>0.9833333332999999</v>
       </c>
       <c r="W80" t="n">
-        <v>5.333</v>
+        <v>21.3</v>
       </c>
       <c r="X80" t="n">
-        <v>2.333</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y80" t="n">
-        <v>17.333</v>
+        <v>69.3</v>
       </c>
       <c r="Z80" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AA80" t="n">
         <v>0.049</v>
@@ -13588,16 +13604,16 @@
         <v>0.85</v>
       </c>
       <c r="W101" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="X101" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="Y101" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="Z101" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA101" t="n">
         <v>0.049</v>
@@ -13748,16 +13764,16 @@
         <v>0.7333333332999999</v>
       </c>
       <c r="W102" t="n">
-        <v>5.5</v>
+        <v>22</v>
       </c>
       <c r="X102" t="n">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="Y102" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="Z102" t="n">
-        <v>11.667</v>
+        <v>46.7</v>
       </c>
       <c r="AA102" t="n">
         <v>0.049</v>
@@ -13908,16 +13924,16 @@
         <v>0.4</v>
       </c>
       <c r="W103" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="X103" t="n">
-        <v>1.833</v>
+        <v>7.3</v>
       </c>
       <c r="Y103" t="n">
-        <v>22.833</v>
+        <v>91.3</v>
       </c>
       <c r="Z103" t="n">
-        <v>0.833</v>
+        <v>3.3</v>
       </c>
       <c r="AA103" t="n">
         <v>0.049</v>
@@ -14068,16 +14084,16 @@
         <v>2.466666667</v>
       </c>
       <c r="W104" t="n">
-        <v>4.333</v>
+        <v>17.3</v>
       </c>
       <c r="X104" t="n">
         <v>0</v>
       </c>
       <c r="Y104" t="n">
-        <v>20.667</v>
+        <v>82.7</v>
       </c>
       <c r="Z104" t="n">
-        <v>5.333</v>
+        <v>21.3</v>
       </c>
       <c r="AA104" t="n">
         <v>0.049</v>
@@ -14228,16 +14244,16 @@
         <v>0.1833333333</v>
       </c>
       <c r="W105" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="X105" t="n">
         <v>0</v>
       </c>
       <c r="Y105" t="n">
-        <v>24.333</v>
+        <v>97.3</v>
       </c>
       <c r="Z105" t="n">
-        <v>4.333</v>
+        <v>17.3</v>
       </c>
       <c r="AA105" t="n">
         <v>0.05</v>
@@ -14388,16 +14404,16 @@
         <v>1.483333333</v>
       </c>
       <c r="W106" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="X106" t="n">
         <v>0</v>
       </c>
       <c r="Y106" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="Z106" t="n">
-        <v>10.667</v>
+        <v>42.7</v>
       </c>
       <c r="AA106" t="n">
         <v>0.049</v>
@@ -14548,16 +14564,16 @@
         <v>1.4</v>
       </c>
       <c r="W107" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
       </c>
       <c r="Y107" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="Z107" t="n">
-        <v>2.333</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA107" t="n">
         <v>0.054</v>
@@ -14708,16 +14724,16 @@
         <v>2.133333333</v>
       </c>
       <c r="W108" t="n">
-        <v>2.667</v>
+        <v>10.7</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
       </c>
       <c r="Y108" t="n">
-        <v>22.333</v>
+        <v>89.3</v>
       </c>
       <c r="Z108" t="n">
-        <v>6.333</v>
+        <v>25.3</v>
       </c>
       <c r="AA108" t="n">
         <v>0.049</v>
@@ -14868,16 +14884,16 @@
         <v>0.8833333333</v>
       </c>
       <c r="W109" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="X109" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="Y109" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Z109" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="AA109" t="n">
         <v>0.049</v>
@@ -15028,16 +15044,16 @@
         <v>1.983333333</v>
       </c>
       <c r="W110" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="X110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y110" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="Z110" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="AA110" t="n">
         <v>0.05</v>
@@ -15169,7 +15185,7 @@
         <v>59.8</v>
       </c>
       <c r="P111" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q111" t="n">
         <v>-2.995732273553991</v>
@@ -15487,7 +15503,7 @@
         <v>12.5</v>
       </c>
       <c r="P114" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q114" t="n">
         <v>-4.268697949366879</v>
@@ -15593,7 +15609,7 @@
         <v>34</v>
       </c>
       <c r="P115" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q115" t="n">
         <v>-4.342805921520601</v>
@@ -15699,7 +15715,7 @@
         <v>6.9</v>
       </c>
       <c r="P116" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q116" t="n">
         <v>-4.509860006183766</v>
@@ -15805,7 +15821,7 @@
         <v>36</v>
       </c>
       <c r="P117" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q117" t="n">
         <v>-4.422848629194137</v>
@@ -15911,7 +15927,7 @@
         <v>3</v>
       </c>
       <c r="P118" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q118" t="n">
         <v>-4.268697949366879</v>
@@ -16017,7 +16033,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="P119" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q119" t="n">
         <v>-4.509860006183766</v>
@@ -16123,7 +16139,7 @@
         <v>2.4</v>
       </c>
       <c r="P120" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q120" t="n">
         <v>-3.912023005428146</v>
@@ -16229,7 +16245,7 @@
         <v>84</v>
       </c>
       <c r="P121" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q121" t="n">
         <v>-3.506557897319982</v>
@@ -16248,16 +16264,16 @@
         <v>2.75</v>
       </c>
       <c r="W121" t="n">
-        <v>2.667</v>
+        <v>10.7</v>
       </c>
       <c r="X121" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="Y121" t="n">
-        <v>21.667</v>
+        <v>86.7</v>
       </c>
       <c r="Z121" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA121" t="n">
         <v>0.049</v>
@@ -16408,16 +16424,16 @@
         <v>2.083333333</v>
       </c>
       <c r="W122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X122" t="n">
-        <v>5.167</v>
+        <v>20.7</v>
       </c>
       <c r="Y122" t="n">
-        <v>18.833</v>
+        <v>75.3</v>
       </c>
       <c r="Z122" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AA122" t="n">
         <v>0.049</v>
@@ -16549,7 +16565,7 @@
         <v>17.4</v>
       </c>
       <c r="P123" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q123" t="n">
         <v>-2.995732273553991</v>
@@ -16568,16 +16584,16 @@
         <v>1.733333333</v>
       </c>
       <c r="W123" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="X123" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="Y123" t="n">
-        <v>23.333</v>
+        <v>93.3</v>
       </c>
       <c r="Z123" t="n">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="AA123" t="n">
         <v>0.049</v>
@@ -16709,7 +16725,7 @@
         <v>39.7</v>
       </c>
       <c r="P124" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q124" t="n">
         <v>-3.218875824868201</v>
@@ -16728,16 +16744,16 @@
         <v>1.3</v>
       </c>
       <c r="W124" t="n">
-        <v>3.333</v>
+        <v>13.3</v>
       </c>
       <c r="X124" t="n">
         <v>0</v>
       </c>
       <c r="Y124" t="n">
-        <v>21.667</v>
+        <v>86.7</v>
       </c>
       <c r="Z124" t="n">
-        <v>8.167</v>
+        <v>32.7</v>
       </c>
       <c r="AA124" t="n">
         <v>0.049</v>
@@ -16888,16 +16904,16 @@
         <v>1.683333333</v>
       </c>
       <c r="W125" t="n">
-        <v>1.833</v>
+        <v>7.3</v>
       </c>
       <c r="X125" t="n">
         <v>0</v>
       </c>
       <c r="Y125" t="n">
-        <v>23.167</v>
+        <v>92.7</v>
       </c>
       <c r="Z125" t="n">
-        <v>5.667</v>
+        <v>22.7</v>
       </c>
       <c r="AA125" t="n">
         <v>0.05</v>
@@ -17029,7 +17045,7 @@
         <v>11.2</v>
       </c>
       <c r="P126" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q126" t="n">
         <v>-3.218875824868201</v>
@@ -17048,16 +17064,16 @@
         <v>3.066666667</v>
       </c>
       <c r="W126" t="n">
-        <v>11.333</v>
+        <v>45.3</v>
       </c>
       <c r="X126" t="n">
         <v>0</v>
       </c>
       <c r="Y126" t="n">
-        <v>13.667</v>
+        <v>54.7</v>
       </c>
       <c r="Z126" t="n">
-        <v>13.333</v>
+        <v>53.3</v>
       </c>
       <c r="AA126" t="n">
         <v>0.049</v>
@@ -17208,16 +17224,16 @@
         <v>1.466666667</v>
       </c>
       <c r="W127" t="n">
+        <v>80</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
         <v>20</v>
       </c>
-      <c r="X127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>5</v>
-      </c>
       <c r="Z127" t="n">
-        <v>4.333</v>
+        <v>17.3</v>
       </c>
       <c r="AA127" t="n">
         <v>0.054</v>
@@ -17349,7 +17365,7 @@
         <v>10.1</v>
       </c>
       <c r="P128" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q128" t="n">
         <v>-3.912023005428146</v>
@@ -17368,16 +17384,16 @@
         <v>2.083333333</v>
       </c>
       <c r="W128" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="X128" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="Y128" t="n">
-        <v>15.667</v>
+        <v>62.7</v>
       </c>
       <c r="Z128" t="n">
-        <v>10.667</v>
+        <v>42.7</v>
       </c>
       <c r="AA128" t="n">
         <v>0.049</v>
@@ -17509,7 +17525,7 @@
         <v>14.9</v>
       </c>
       <c r="P129" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q129" t="n">
         <v>-3.218875824868201</v>
@@ -17528,16 +17544,16 @@
         <v>0.7</v>
       </c>
       <c r="W129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X129" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="Y129" t="n">
-        <v>23.333</v>
+        <v>93.3</v>
       </c>
       <c r="Z129" t="n">
-        <v>1.667</v>
+        <v>6.7</v>
       </c>
       <c r="AA129" t="n">
         <v>0.049</v>
@@ -17669,7 +17685,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="P130" t="n">
-        <v>-6.959048573369688</v>
+        <v>-6.907755278982137</v>
       </c>
       <c r="Q130" t="n">
         <v>-2.995732273553991</v>
@@ -17688,13 +17704,13 @@
         <v>1.066666667</v>
       </c>
       <c r="W130" t="n">
-        <v>9.667</v>
+        <v>38.7</v>
       </c>
       <c r="X130" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y130" t="n">
-        <v>10.333</v>
+        <v>41.3</v>
       </c>
       <c r="Z130" t="n">
         <v>0</v>
@@ -18908,16 +18924,16 @@
         <v>0.9</v>
       </c>
       <c r="W141" t="n">
-        <v>1.833</v>
+        <v>7.3</v>
       </c>
       <c r="X141" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="Y141" t="n">
-        <v>22.833</v>
+        <v>91.3</v>
       </c>
       <c r="Z141" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="AA141" t="n">
         <v>0.049</v>
@@ -19068,16 +19084,16 @@
         <v>1.35</v>
       </c>
       <c r="W142" t="n">
-        <v>1.167</v>
+        <v>4.7</v>
       </c>
       <c r="X142" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Y142" t="n">
-        <v>17.833</v>
+        <v>71.3</v>
       </c>
       <c r="Z142" t="n">
-        <v>10.333</v>
+        <v>41.3</v>
       </c>
       <c r="AA142" t="n">
         <v>0.049</v>
@@ -19228,16 +19244,16 @@
         <v>1.316666667</v>
       </c>
       <c r="W143" t="n">
-        <v>1.167</v>
+        <v>4.7</v>
       </c>
       <c r="X143" t="n">
-        <v>3.333</v>
+        <v>13.3</v>
       </c>
       <c r="Y143" t="n">
-        <v>20.5</v>
+        <v>82</v>
       </c>
       <c r="Z143" t="n">
-        <v>1.667</v>
+        <v>6.7</v>
       </c>
       <c r="AA143" t="n">
         <v>0.049</v>
@@ -19388,16 +19404,16 @@
         <v>1.766666667</v>
       </c>
       <c r="W144" t="n">
-        <v>4.833</v>
+        <v>19.3</v>
       </c>
       <c r="X144" t="n">
         <v>0</v>
       </c>
       <c r="Y144" t="n">
-        <v>20.167</v>
+        <v>80.7</v>
       </c>
       <c r="Z144" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AA144" t="n">
         <v>0.049</v>
@@ -19548,16 +19564,16 @@
         <v>0.8333333333</v>
       </c>
       <c r="W145" t="n">
-        <v>2.833</v>
+        <v>11.3</v>
       </c>
       <c r="X145" t="n">
         <v>0</v>
       </c>
       <c r="Y145" t="n">
-        <v>23.167</v>
+        <v>92.7</v>
       </c>
       <c r="Z145" t="n">
-        <v>8.667</v>
+        <v>34.7</v>
       </c>
       <c r="AA145" t="n">
         <v>0.049</v>
@@ -19708,16 +19724,16 @@
         <v>1.35</v>
       </c>
       <c r="W146" t="n">
-        <v>10.667</v>
+        <v>42.7</v>
       </c>
       <c r="X146" t="n">
         <v>0</v>
       </c>
       <c r="Y146" t="n">
-        <v>14.333</v>
+        <v>57.3</v>
       </c>
       <c r="Z146" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AA146" t="n">
         <v>0.049</v>
@@ -19868,16 +19884,16 @@
         <v>0.95</v>
       </c>
       <c r="W147" t="n">
-        <v>4.333</v>
+        <v>17.3</v>
       </c>
       <c r="X147" t="n">
         <v>0</v>
       </c>
       <c r="Y147" t="n">
-        <v>20.667</v>
+        <v>82.7</v>
       </c>
       <c r="Z147" t="n">
-        <v>6.667</v>
+        <v>26.7</v>
       </c>
       <c r="AA147" t="n">
         <v>0.049</v>
@@ -20028,16 +20044,16 @@
         <v>0.9</v>
       </c>
       <c r="W148" t="n">
-        <v>2.667</v>
+        <v>10.7</v>
       </c>
       <c r="X148" t="n">
         <v>0</v>
       </c>
       <c r="Y148" t="n">
-        <v>22.333</v>
+        <v>89.3</v>
       </c>
       <c r="Z148" t="n">
-        <v>3.667</v>
+        <v>14.7</v>
       </c>
       <c r="AA148" t="n">
         <v>0.049</v>
@@ -20188,13 +20204,13 @@
         <v>0.6166666667</v>
       </c>
       <c r="W149" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="X149" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="Y149" t="n">
-        <v>22.333</v>
+        <v>89.3</v>
       </c>
       <c r="Z149" t="n">
         <v>0</v>
@@ -20348,16 +20364,16 @@
         <v>0.9333333333</v>
       </c>
       <c r="W150" t="n">
-        <v>14.333</v>
+        <v>57.3</v>
       </c>
       <c r="X150" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Y150" t="n">
-        <v>7.667</v>
+        <v>30.7</v>
       </c>
       <c r="Z150" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA150" t="n">
         <v>0.064</v>
@@ -21568,16 +21584,16 @@
         <v>0.8</v>
       </c>
       <c r="W161" t="n">
-        <v>2.667</v>
+        <v>10.7</v>
       </c>
       <c r="X161" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y161" t="n">
-        <v>21.833</v>
+        <v>87.3</v>
       </c>
       <c r="Z161" t="n">
-        <v>3.833</v>
+        <v>15.3</v>
       </c>
       <c r="AA161" t="n">
         <v>0</v>
@@ -21728,16 +21744,16 @@
         <v>1.25</v>
       </c>
       <c r="W162" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="X162" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Y162" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="Z162" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AA162" t="n">
         <v>0</v>
@@ -21891,13 +21907,13 @@
         <v>0</v>
       </c>
       <c r="X163" t="n">
-        <v>2.167</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y163" t="n">
-        <v>22.833</v>
+        <v>91.3</v>
       </c>
       <c r="Z163" t="n">
-        <v>3.667</v>
+        <v>14.7</v>
       </c>
       <c r="AA163" t="n">
         <v>0</v>
@@ -22048,16 +22064,16 @@
         <v>0.9666666667</v>
       </c>
       <c r="W164" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="X164" t="n">
         <v>0</v>
       </c>
       <c r="Y164" t="n">
-        <v>24.333</v>
+        <v>97.3</v>
       </c>
       <c r="Z164" t="n">
-        <v>9.833</v>
+        <v>39.3</v>
       </c>
       <c r="AA164" t="n">
         <v>0</v>
@@ -22208,16 +22224,16 @@
         <v>0.5166666667000001</v>
       </c>
       <c r="W165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X165" t="n">
         <v>0</v>
       </c>
       <c r="Y165" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Z165" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AA165" t="n">
         <v>0</v>
@@ -22368,16 +22384,16 @@
         <v>0.55</v>
       </c>
       <c r="W166" t="n">
-        <v>0.167</v>
+        <v>0.7</v>
       </c>
       <c r="X166" t="n">
         <v>0</v>
       </c>
       <c r="Y166" t="n">
-        <v>24.833</v>
+        <v>99.3</v>
       </c>
       <c r="Z166" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AA166" t="n">
         <v>0.054</v>
@@ -22528,16 +22544,16 @@
         <v>0.65</v>
       </c>
       <c r="W167" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="X167" t="n">
         <v>0</v>
       </c>
       <c r="Y167" t="n">
-        <v>22.5</v>
+        <v>90</v>
       </c>
       <c r="Z167" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA167" t="n">
         <v>0</v>
@@ -22688,16 +22704,16 @@
         <v>1.533333333</v>
       </c>
       <c r="W168" t="n">
-        <v>2.667</v>
+        <v>10.7</v>
       </c>
       <c r="X168" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="Y168" t="n">
-        <v>21.667</v>
+        <v>86.7</v>
       </c>
       <c r="Z168" t="n">
-        <v>6.667</v>
+        <v>26.7</v>
       </c>
       <c r="AA168" t="n">
         <v>0.053</v>
@@ -22848,16 +22864,16 @@
         <v>2.533333333</v>
       </c>
       <c r="W169" t="n">
-        <v>1.667</v>
+        <v>6.7</v>
       </c>
       <c r="X169" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="Y169" t="n">
-        <v>22.333</v>
+        <v>89.3</v>
       </c>
       <c r="Z169" t="n">
-        <v>5.333</v>
+        <v>21.3</v>
       </c>
       <c r="AA169" t="n">
         <v>0.054</v>
@@ -23008,16 +23024,16 @@
         <v>5.6</v>
       </c>
       <c r="W170" t="n">
-        <v>3.333</v>
+        <v>13.3</v>
       </c>
       <c r="X170" t="n">
-        <v>2.333</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y170" t="n">
-        <v>19.333</v>
+        <v>77.3</v>
       </c>
       <c r="Z170" t="n">
-        <v>1.667</v>
+        <v>6.7</v>
       </c>
       <c r="AA170" t="n">
         <v>0.054</v>
@@ -23165,18 +23181,10 @@
       <c r="V171" t="n">
         <v>1.25</v>
       </c>
-      <c r="W171" t="n">
-        <v>1.667</v>
-      </c>
-      <c r="X171" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y171" t="n">
-        <v>22.833</v>
-      </c>
-      <c r="Z171" t="n">
-        <v>2.833</v>
-      </c>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
       <c r="AA171" t="inlineStr"/>
       <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
@@ -25296,16 +25304,16 @@
         <v>0.3</v>
       </c>
       <c r="W191" t="n">
-        <v>1.667</v>
+        <v>6.7</v>
       </c>
       <c r="X191" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y191" t="n">
-        <v>22.833</v>
+        <v>91.3</v>
       </c>
       <c r="Z191" t="n">
-        <v>2.833</v>
+        <v>11.3</v>
       </c>
       <c r="AA191" t="n">
         <v>0</v>
@@ -25454,16 +25462,16 @@
         <v>0.2</v>
       </c>
       <c r="W192" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X192" t="n">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="Y192" t="n">
-        <v>18.5</v>
+        <v>74</v>
       </c>
       <c r="Z192" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA192" t="n">
         <v>0</v>
@@ -25612,16 +25620,16 @@
         <v>0.2</v>
       </c>
       <c r="W193" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="X193" t="n">
-        <v>0.833</v>
+        <v>3.3</v>
       </c>
       <c r="Y193" t="n">
-        <v>23.667</v>
+        <v>94.7</v>
       </c>
       <c r="Z193" t="n">
-        <v>4.333</v>
+        <v>17.3</v>
       </c>
       <c r="AA193" t="n">
         <v>0</v>
@@ -25770,16 +25778,16 @@
         <v>1.6</v>
       </c>
       <c r="W194" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="X194" t="n">
         <v>0</v>
       </c>
       <c r="Y194" t="n">
-        <v>23.667</v>
+        <v>94.7</v>
       </c>
       <c r="Z194" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA194" t="n">
         <v>0</v>
@@ -25928,16 +25936,16 @@
         <v>1.4</v>
       </c>
       <c r="W195" t="n">
-        <v>0.833</v>
+        <v>3.3</v>
       </c>
       <c r="X195" t="n">
         <v>0</v>
       </c>
       <c r="Y195" t="n">
-        <v>24.167</v>
+        <v>96.7</v>
       </c>
       <c r="Z195" t="n">
-        <v>3.333</v>
+        <v>13.3</v>
       </c>
       <c r="AA195" t="n">
         <v>0</v>
@@ -26086,16 +26094,16 @@
         <v>0.6</v>
       </c>
       <c r="W196" t="n">
-        <v>4.333</v>
+        <v>17.3</v>
       </c>
       <c r="X196" t="n">
         <v>0</v>
       </c>
       <c r="Y196" t="n">
-        <v>20.667</v>
+        <v>82.7</v>
       </c>
       <c r="Z196" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA196" t="n">
         <v>0</v>
@@ -26244,16 +26252,16 @@
         <v>0.7</v>
       </c>
       <c r="W197" t="n">
-        <v>1.667</v>
+        <v>6.7</v>
       </c>
       <c r="X197" t="n">
         <v>0</v>
       </c>
       <c r="Y197" t="n">
-        <v>23.333</v>
+        <v>93.3</v>
       </c>
       <c r="Z197" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AA197" t="n">
         <v>0</v>
@@ -26402,16 +26410,16 @@
         <v>0.4</v>
       </c>
       <c r="W198" t="n">
-        <v>3.667</v>
+        <v>14.7</v>
       </c>
       <c r="X198" t="n">
         <v>0</v>
       </c>
       <c r="Y198" t="n">
-        <v>21.333</v>
+        <v>85.3</v>
       </c>
       <c r="Z198" t="n">
-        <v>11.667</v>
+        <v>46.7</v>
       </c>
       <c r="AA198" t="n">
         <v>0</v>
@@ -26563,13 +26571,13 @@
         <v>0</v>
       </c>
       <c r="X199" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="Y199" t="n">
-        <v>23.667</v>
+        <v>94.7</v>
       </c>
       <c r="Z199" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AA199" t="n">
         <v>0</v>
@@ -26718,16 +26726,16 @@
         <v>0.7</v>
       </c>
       <c r="W200" t="n">
-        <v>8.333</v>
+        <v>33.3</v>
       </c>
       <c r="X200" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="Y200" t="n">
-        <v>15.333</v>
+        <v>61.3</v>
       </c>
       <c r="Z200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA200" t="n">
         <v>0</v>
@@ -27932,25 +27940,41 @@
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr"/>
       <c r="W211" t="n">
-        <v>1.16666667</v>
+        <v>4.7</v>
       </c>
       <c r="X211" t="n">
         <v>0</v>
       </c>
       <c r="Y211" t="n">
-        <v>23.833</v>
+        <v>95.3</v>
       </c>
       <c r="Z211" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA211" t="inlineStr"/>
-      <c r="AB211" t="inlineStr"/>
-      <c r="AC211" t="inlineStr"/>
-      <c r="AD211" t="inlineStr"/>
-      <c r="AE211" t="inlineStr"/>
-      <c r="AF211" t="inlineStr"/>
-      <c r="AG211" t="inlineStr"/>
-      <c r="AH211" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>11</v>
+      </c>
       <c r="AI211" t="n">
         <v>12</v>
       </c>
@@ -28072,25 +28096,41 @@
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr"/>
       <c r="W212" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="X212" t="n">
-        <v>4.667</v>
+        <v>18.7</v>
       </c>
       <c r="Y212" t="n">
-        <v>11.333</v>
+        <v>45.3</v>
       </c>
       <c r="Z212" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA212" t="inlineStr"/>
-      <c r="AB212" t="inlineStr"/>
-      <c r="AC212" t="inlineStr"/>
-      <c r="AD212" t="inlineStr"/>
-      <c r="AE212" t="inlineStr"/>
-      <c r="AF212" t="inlineStr"/>
-      <c r="AG212" t="inlineStr"/>
-      <c r="AH212" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>113</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>13.6</v>
+      </c>
       <c r="AI212" t="n">
         <v>28</v>
       </c>
@@ -28212,25 +28252,41 @@
       <c r="U213" t="inlineStr"/>
       <c r="V213" t="inlineStr"/>
       <c r="W213" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="X213" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Y213" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="Z213" t="n">
         <v>0</v>
       </c>
-      <c r="AA213" t="inlineStr"/>
-      <c r="AB213" t="inlineStr"/>
-      <c r="AC213" t="inlineStr"/>
-      <c r="AD213" t="inlineStr"/>
-      <c r="AE213" t="inlineStr"/>
-      <c r="AF213" t="inlineStr"/>
-      <c r="AG213" t="inlineStr"/>
-      <c r="AH213" t="inlineStr"/>
+      <c r="AA213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>15.3</v>
+      </c>
       <c r="AI213" t="n">
         <v>20</v>
       </c>
@@ -28352,25 +28408,41 @@
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr"/>
       <c r="W214" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="X214" t="n">
         <v>0</v>
       </c>
       <c r="Y214" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Z214" t="n">
         <v>0</v>
       </c>
-      <c r="AA214" t="inlineStr"/>
-      <c r="AB214" t="inlineStr"/>
-      <c r="AC214" t="inlineStr"/>
-      <c r="AD214" t="inlineStr"/>
-      <c r="AE214" t="inlineStr"/>
-      <c r="AF214" t="inlineStr"/>
-      <c r="AG214" t="inlineStr"/>
-      <c r="AH214" t="inlineStr"/>
+      <c r="AA214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>112</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>10.8</v>
+      </c>
       <c r="AI214" t="n">
         <v>0</v>
       </c>
@@ -28492,25 +28564,41 @@
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr"/>
       <c r="W215" t="n">
-        <v>4.667</v>
+        <v>18.7</v>
       </c>
       <c r="X215" t="n">
         <v>0</v>
       </c>
       <c r="Y215" t="n">
-        <v>20.333</v>
+        <v>81.3</v>
       </c>
       <c r="Z215" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="AA215" t="inlineStr"/>
-      <c r="AB215" t="inlineStr"/>
-      <c r="AC215" t="inlineStr"/>
-      <c r="AD215" t="inlineStr"/>
-      <c r="AE215" t="inlineStr"/>
-      <c r="AF215" t="inlineStr"/>
-      <c r="AG215" t="inlineStr"/>
-      <c r="AH215" t="inlineStr"/>
+        <v>5.3</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>111</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>16.1</v>
+      </c>
       <c r="AI215" t="n">
         <v>16</v>
       </c>
@@ -28632,25 +28720,41 @@
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr"/>
       <c r="W216" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X216" t="n">
         <v>0</v>
       </c>
       <c r="Y216" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="Z216" t="n">
-        <v>6.778</v>
-      </c>
-      <c r="AA216" t="inlineStr"/>
-      <c r="AB216" t="inlineStr"/>
-      <c r="AC216" t="inlineStr"/>
-      <c r="AD216" t="inlineStr"/>
-      <c r="AE216" t="inlineStr"/>
-      <c r="AF216" t="inlineStr"/>
-      <c r="AG216" t="inlineStr"/>
-      <c r="AH216" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>127</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>19.3</v>
+      </c>
       <c r="AI216" t="n">
         <v>22</v>
       </c>
@@ -28772,25 +28876,41 @@
       <c r="U217" t="inlineStr"/>
       <c r="V217" t="inlineStr"/>
       <c r="W217" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X217" t="n">
         <v>0</v>
       </c>
       <c r="Y217" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="Z217" t="n">
         <v>0</v>
       </c>
-      <c r="AA217" t="inlineStr"/>
-      <c r="AB217" t="inlineStr"/>
-      <c r="AC217" t="inlineStr"/>
-      <c r="AD217" t="inlineStr"/>
-      <c r="AE217" t="inlineStr"/>
-      <c r="AF217" t="inlineStr"/>
-      <c r="AG217" t="inlineStr"/>
-      <c r="AH217" t="inlineStr"/>
+      <c r="AA217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>23.1</v>
+      </c>
       <c r="AI217" t="n">
         <v>1</v>
       </c>
@@ -28912,25 +29032,41 @@
       <c r="U218" t="inlineStr"/>
       <c r="V218" t="inlineStr"/>
       <c r="W218" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="X218" t="n">
         <v>0</v>
       </c>
       <c r="Y218" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>141</v>
+      </c>
+      <c r="AH218" t="n">
         <v>17</v>
       </c>
-      <c r="Z218" t="n">
-        <v>5.333</v>
-      </c>
-      <c r="AA218" t="inlineStr"/>
-      <c r="AB218" t="inlineStr"/>
-      <c r="AC218" t="inlineStr"/>
-      <c r="AD218" t="inlineStr"/>
-      <c r="AE218" t="inlineStr"/>
-      <c r="AF218" t="inlineStr"/>
-      <c r="AG218" t="inlineStr"/>
-      <c r="AH218" t="inlineStr"/>
       <c r="AI218" t="n">
         <v>6.3</v>
       </c>
@@ -29052,25 +29188,41 @@
       <c r="U219" t="inlineStr"/>
       <c r="V219" t="inlineStr"/>
       <c r="W219" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="X219" t="n">
-        <v>2.833</v>
+        <v>11.3</v>
       </c>
       <c r="Y219" t="n">
-        <v>19.167</v>
+        <v>76.7</v>
       </c>
       <c r="Z219" t="n">
-        <v>10.333</v>
-      </c>
-      <c r="AA219" t="inlineStr"/>
-      <c r="AB219" t="inlineStr"/>
-      <c r="AC219" t="inlineStr"/>
-      <c r="AD219" t="inlineStr"/>
-      <c r="AE219" t="inlineStr"/>
-      <c r="AF219" t="inlineStr"/>
-      <c r="AG219" t="inlineStr"/>
-      <c r="AH219" t="inlineStr"/>
+        <v>41.3</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>112</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>16</v>
+      </c>
       <c r="AI219" t="n">
         <v>25</v>
       </c>
@@ -29192,25 +29344,41 @@
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr"/>
       <c r="W220" t="n">
-        <v>7.3</v>
+        <v>29.2</v>
       </c>
       <c r="X220" t="n">
         <v>0</v>
       </c>
       <c r="Y220" t="n">
-        <v>17.666</v>
+        <v>70.7</v>
       </c>
       <c r="Z220" t="n">
-        <v>6.667</v>
-      </c>
-      <c r="AA220" t="inlineStr"/>
-      <c r="AB220" t="inlineStr"/>
-      <c r="AC220" t="inlineStr"/>
-      <c r="AD220" t="inlineStr"/>
-      <c r="AE220" t="inlineStr"/>
-      <c r="AF220" t="inlineStr"/>
-      <c r="AG220" t="inlineStr"/>
-      <c r="AH220" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>18.6</v>
+      </c>
       <c r="AI220" t="n">
         <v>15.7</v>
       </c>
@@ -30372,25 +30540,41 @@
       <c r="U231" t="inlineStr"/>
       <c r="V231" t="inlineStr"/>
       <c r="W231" t="n">
-        <v>1.167</v>
+        <v>4.7</v>
       </c>
       <c r="X231" t="n">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="Y231" t="n">
-        <v>23.5</v>
+        <v>94</v>
       </c>
       <c r="Z231" t="n">
         <v>0</v>
       </c>
-      <c r="AA231" t="inlineStr"/>
-      <c r="AB231" t="inlineStr"/>
-      <c r="AC231" t="inlineStr"/>
-      <c r="AD231" t="inlineStr"/>
-      <c r="AE231" t="inlineStr"/>
-      <c r="AF231" t="inlineStr"/>
-      <c r="AG231" t="inlineStr"/>
-      <c r="AH231" t="inlineStr"/>
+      <c r="AA231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>129</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>13.6</v>
+      </c>
       <c r="AI231" t="n">
         <v>44</v>
       </c>
@@ -30512,25 +30696,41 @@
       <c r="U232" t="inlineStr"/>
       <c r="V232" t="inlineStr"/>
       <c r="W232" t="n">
-        <v>4.667</v>
+        <v>18.7</v>
       </c>
       <c r="X232" t="n">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="Y232" t="n">
-        <v>15.833</v>
+        <v>63.3</v>
       </c>
       <c r="Z232" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA232" t="inlineStr"/>
-      <c r="AB232" t="inlineStr"/>
-      <c r="AC232" t="inlineStr"/>
-      <c r="AD232" t="inlineStr"/>
-      <c r="AE232" t="inlineStr"/>
-      <c r="AF232" t="inlineStr"/>
-      <c r="AG232" t="inlineStr"/>
-      <c r="AH232" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>125</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>14.6</v>
+      </c>
       <c r="AI232" t="n">
         <v>30</v>
       </c>
@@ -30658,19 +30858,35 @@
         <v>0</v>
       </c>
       <c r="Y233" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="Z233" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA233" t="inlineStr"/>
-      <c r="AB233" t="inlineStr"/>
-      <c r="AC233" t="inlineStr"/>
-      <c r="AD233" t="inlineStr"/>
-      <c r="AE233" t="inlineStr"/>
-      <c r="AF233" t="inlineStr"/>
-      <c r="AG233" t="inlineStr"/>
-      <c r="AH233" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>123</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>13.1</v>
+      </c>
       <c r="AI233" t="n">
         <v>42</v>
       </c>
@@ -30792,25 +31008,41 @@
       <c r="U234" t="inlineStr"/>
       <c r="V234" t="inlineStr"/>
       <c r="W234" t="n">
-        <v>1.333</v>
+        <v>5.3</v>
       </c>
       <c r="X234" t="n">
         <v>0</v>
       </c>
       <c r="Y234" t="n">
-        <v>23.667</v>
+        <v>94.7</v>
       </c>
       <c r="Z234" t="n">
-        <v>5.333</v>
-      </c>
-      <c r="AA234" t="inlineStr"/>
-      <c r="AB234" t="inlineStr"/>
-      <c r="AC234" t="inlineStr"/>
-      <c r="AD234" t="inlineStr"/>
-      <c r="AE234" t="inlineStr"/>
-      <c r="AF234" t="inlineStr"/>
-      <c r="AG234" t="inlineStr"/>
-      <c r="AH234" t="inlineStr"/>
+        <v>21.3</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>106</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>9.029999999999999</v>
+      </c>
       <c r="AI234" t="n">
         <v>21</v>
       </c>
@@ -30932,25 +31164,41 @@
       <c r="U235" t="inlineStr"/>
       <c r="V235" t="inlineStr"/>
       <c r="W235" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="X235" t="n">
         <v>0</v>
       </c>
       <c r="Y235" t="n">
-        <v>24.5</v>
+        <v>98</v>
       </c>
       <c r="Z235" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="AA235" t="inlineStr"/>
-      <c r="AB235" t="inlineStr"/>
-      <c r="AC235" t="inlineStr"/>
-      <c r="AD235" t="inlineStr"/>
-      <c r="AE235" t="inlineStr"/>
-      <c r="AF235" t="inlineStr"/>
-      <c r="AG235" t="inlineStr"/>
-      <c r="AH235" t="inlineStr"/>
+        <v>12.7</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>112</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>15.1</v>
+      </c>
       <c r="AI235" t="n">
         <v>30</v>
       </c>
@@ -31072,25 +31320,41 @@
       <c r="U236" t="inlineStr"/>
       <c r="V236" t="inlineStr"/>
       <c r="W236" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X236" t="n">
         <v>0</v>
       </c>
       <c r="Y236" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Z236" t="n">
-        <v>7.333</v>
-      </c>
-      <c r="AA236" t="inlineStr"/>
-      <c r="AB236" t="inlineStr"/>
-      <c r="AC236" t="inlineStr"/>
-      <c r="AD236" t="inlineStr"/>
-      <c r="AE236" t="inlineStr"/>
-      <c r="AF236" t="inlineStr"/>
-      <c r="AG236" t="inlineStr"/>
-      <c r="AH236" t="inlineStr"/>
+        <v>29.3</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>47</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>19.5</v>
+      </c>
       <c r="AI236" t="n">
         <v>12</v>
       </c>
@@ -31212,25 +31476,41 @@
       <c r="U237" t="inlineStr"/>
       <c r="V237" t="inlineStr"/>
       <c r="W237" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="X237" t="n">
         <v>0</v>
       </c>
       <c r="Y237" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Z237" t="n">
         <v>0</v>
       </c>
-      <c r="AA237" t="inlineStr"/>
-      <c r="AB237" t="inlineStr"/>
-      <c r="AC237" t="inlineStr"/>
-      <c r="AD237" t="inlineStr"/>
-      <c r="AE237" t="inlineStr"/>
-      <c r="AF237" t="inlineStr"/>
-      <c r="AG237" t="inlineStr"/>
-      <c r="AH237" t="inlineStr"/>
+      <c r="AA237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>23.6</v>
+      </c>
       <c r="AI237" t="n">
         <v>39</v>
       </c>
@@ -31352,25 +31632,41 @@
       <c r="U238" t="inlineStr"/>
       <c r="V238" t="inlineStr"/>
       <c r="W238" t="n">
-        <v>2.666666</v>
+        <v>10.7</v>
       </c>
       <c r="X238" t="n">
         <v>0</v>
       </c>
       <c r="Y238" t="n">
-        <v>22.333</v>
+        <v>89.3</v>
       </c>
       <c r="Z238" t="n">
-        <v>7.333</v>
-      </c>
-      <c r="AA238" t="inlineStr"/>
-      <c r="AB238" t="inlineStr"/>
-      <c r="AC238" t="inlineStr"/>
-      <c r="AD238" t="inlineStr"/>
-      <c r="AE238" t="inlineStr"/>
-      <c r="AF238" t="inlineStr"/>
-      <c r="AG238" t="inlineStr"/>
-      <c r="AH238" t="inlineStr"/>
+        <v>29.3</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>142</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>12.4</v>
+      </c>
       <c r="AI238" t="n">
         <v>31.3</v>
       </c>
@@ -31492,25 +31788,41 @@
       <c r="U239" t="inlineStr"/>
       <c r="V239" t="inlineStr"/>
       <c r="W239" t="n">
-        <v>0.33333</v>
+        <v>1.3</v>
       </c>
       <c r="X239" t="n">
-        <v>0.667</v>
+        <v>2.7</v>
       </c>
       <c r="Y239" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Z239" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA239" t="inlineStr"/>
-      <c r="AB239" t="inlineStr"/>
-      <c r="AC239" t="inlineStr"/>
-      <c r="AD239" t="inlineStr"/>
-      <c r="AE239" t="inlineStr"/>
-      <c r="AF239" t="inlineStr"/>
-      <c r="AG239" t="inlineStr"/>
-      <c r="AH239" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>134</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>15.5</v>
+      </c>
       <c r="AI239" t="n">
         <v>44.3</v>
       </c>
@@ -31632,25 +31944,41 @@
       <c r="U240" t="inlineStr"/>
       <c r="V240" t="inlineStr"/>
       <c r="W240" t="n">
-        <v>3.667</v>
+        <v>14.7</v>
       </c>
       <c r="X240" t="n">
-        <v>4.667</v>
+        <v>18.7</v>
       </c>
       <c r="Y240" t="n">
-        <v>16.667</v>
+        <v>66.7</v>
       </c>
       <c r="Z240" t="n">
-        <v>4.667</v>
-      </c>
-      <c r="AA240" t="inlineStr"/>
-      <c r="AB240" t="inlineStr"/>
-      <c r="AC240" t="inlineStr"/>
-      <c r="AD240" t="inlineStr"/>
-      <c r="AE240" t="inlineStr"/>
-      <c r="AF240" t="inlineStr"/>
-      <c r="AG240" t="inlineStr"/>
-      <c r="AH240" t="inlineStr"/>
+        <v>18.7</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AI240" t="n">
         <v>35.7</v>
       </c>
